--- a/Assets/06.Table/NewSemesterPass.xlsx
+++ b/Assets/06.Table/NewSemesterPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E62B3CE-368A-458D-BCAA-2E17865CAC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881CAD47-6D1B-4919-B258-ADCD6A683653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="32730" yWindow="645" windowWidth="21600" windowHeight="14940" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="NewSemesterPass" sheetId="1" r:id="rId1"/>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -727,13 +727,13 @@
       <c r="B8" s="7">
         <v>35000000</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="8">
         <v>9010</v>
       </c>
       <c r="D8" s="7">
         <v>23000</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>9010</v>
       </c>
       <c r="F8" s="7">
@@ -747,13 +747,13 @@
       <c r="B9" s="7">
         <v>40000000</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>46</v>
       </c>
       <c r="D9" s="7">
         <v>23000</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>46</v>
       </c>
       <c r="F9" s="7">
@@ -767,13 +767,13 @@
       <c r="B10" s="7">
         <v>45000000</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>73</v>
       </c>
       <c r="D10" s="7">
         <v>17000</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>73</v>
       </c>
       <c r="F10" s="7">
@@ -787,13 +787,13 @@
       <c r="B11" s="7">
         <v>50000000</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>88</v>
       </c>
       <c r="D11" s="7">
         <v>17000</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>88</v>
       </c>
       <c r="F11" s="7">
@@ -807,13 +807,13 @@
       <c r="B12" s="7">
         <v>55000000</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>9001</v>
       </c>
       <c r="D12" s="7">
         <v>17000</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>9001</v>
       </c>
       <c r="F12" s="7">
@@ -827,13 +827,13 @@
       <c r="B13" s="7">
         <v>60000000</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>9008</v>
       </c>
       <c r="D13" s="7">
         <v>17000</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <v>9008</v>
       </c>
       <c r="F13" s="7">
@@ -867,17 +867,297 @@
       <c r="B15" s="7">
         <v>70000000</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>46</v>
       </c>
       <c r="D15" s="7">
         <v>23000</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>46</v>
       </c>
       <c r="F15" s="7">
         <v>46000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7">
+        <v>75000000</v>
+      </c>
+      <c r="C16" s="6">
+        <v>73</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17000</v>
+      </c>
+      <c r="E16" s="6">
+        <v>73</v>
+      </c>
+      <c r="F16" s="7">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7">
+        <v>80000000</v>
+      </c>
+      <c r="C17" s="6">
+        <v>88</v>
+      </c>
+      <c r="D17" s="7">
+        <v>17000</v>
+      </c>
+      <c r="E17" s="6">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7">
+        <v>85000000</v>
+      </c>
+      <c r="C18" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D18" s="7">
+        <v>17000</v>
+      </c>
+      <c r="E18" s="6">
+        <v>9001</v>
+      </c>
+      <c r="F18" s="7">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
+        <v>90000000</v>
+      </c>
+      <c r="C19" s="9">
+        <v>9008</v>
+      </c>
+      <c r="D19" s="7">
+        <v>17000</v>
+      </c>
+      <c r="E19" s="9">
+        <v>9008</v>
+      </c>
+      <c r="F19" s="7">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7">
+        <v>95000000</v>
+      </c>
+      <c r="C20" s="8">
+        <v>9010</v>
+      </c>
+      <c r="D20" s="7">
+        <v>23000</v>
+      </c>
+      <c r="E20" s="8">
+        <v>9010</v>
+      </c>
+      <c r="F20" s="7">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7">
+        <v>100000000</v>
+      </c>
+      <c r="C21" s="6">
+        <v>46</v>
+      </c>
+      <c r="D21" s="7">
+        <v>23000</v>
+      </c>
+      <c r="E21" s="6">
+        <v>46</v>
+      </c>
+      <c r="F21" s="7">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7">
+        <v>105000000</v>
+      </c>
+      <c r="C22" s="6">
+        <v>73</v>
+      </c>
+      <c r="D22" s="7">
+        <v>17000</v>
+      </c>
+      <c r="E22" s="6">
+        <v>73</v>
+      </c>
+      <c r="F22" s="7">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7">
+        <v>110000000</v>
+      </c>
+      <c r="C23" s="6">
+        <v>88</v>
+      </c>
+      <c r="D23" s="7">
+        <v>17000</v>
+      </c>
+      <c r="E23" s="6">
+        <v>88</v>
+      </c>
+      <c r="F23" s="7">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7">
+        <v>115000000</v>
+      </c>
+      <c r="C24" s="6">
+        <v>9001</v>
+      </c>
+      <c r="D24" s="7">
+        <v>17000</v>
+      </c>
+      <c r="E24" s="6">
+        <v>9001</v>
+      </c>
+      <c r="F24" s="7">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7">
+        <v>120000000</v>
+      </c>
+      <c r="C25" s="9">
+        <v>9008</v>
+      </c>
+      <c r="D25" s="7">
+        <v>17000</v>
+      </c>
+      <c r="E25" s="9">
+        <v>9008</v>
+      </c>
+      <c r="F25" s="7">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="7">
+        <v>125000000</v>
+      </c>
+      <c r="C26" s="8">
+        <v>9010</v>
+      </c>
+      <c r="D26" s="7">
+        <v>23000</v>
+      </c>
+      <c r="E26" s="8">
+        <v>9010</v>
+      </c>
+      <c r="F26" s="7">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="7">
+        <v>130000000</v>
+      </c>
+      <c r="C27" s="6">
+        <v>46</v>
+      </c>
+      <c r="D27" s="7">
+        <v>23000</v>
+      </c>
+      <c r="E27" s="6">
+        <v>46</v>
+      </c>
+      <c r="F27" s="7">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7">
+        <v>135000000</v>
+      </c>
+      <c r="C28" s="6">
+        <v>73</v>
+      </c>
+      <c r="D28" s="7">
+        <v>17000</v>
+      </c>
+      <c r="E28" s="6">
+        <v>73</v>
+      </c>
+      <c r="F28" s="7">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7">
+        <v>140000000</v>
+      </c>
+      <c r="C29" s="6">
+        <v>88</v>
+      </c>
+      <c r="D29" s="7">
+        <v>17000</v>
+      </c>
+      <c r="E29" s="6">
+        <v>88</v>
+      </c>
+      <c r="F29" s="7">
+        <v>34000</v>
       </c>
     </row>
   </sheetData>
@@ -1096,15 +1376,15 @@
       </c>
       <c r="C19" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A19,NewSemesterPass!D:D)</f>
-        <v>69000</v>
+        <v>115000</v>
       </c>
       <c r="D19" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A19,NewSemesterPass!F:F)</f>
-        <v>138000</v>
+        <v>230000</v>
       </c>
       <c r="E19" s="1">
         <f>C19+D19</f>
-        <v>207000</v>
+        <v>345000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1116,15 +1396,15 @@
       </c>
       <c r="C20" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A20,NewSemesterPass!D:D)</f>
-        <v>34000</v>
+        <v>85000</v>
       </c>
       <c r="D20" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A20,NewSemesterPass!F:F)</f>
-        <v>68000</v>
+        <v>170000</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ref="E20:E24" si="1">C20+D20</f>
-        <v>102000</v>
+        <v>255000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1136,15 +1416,15 @@
       </c>
       <c r="C21" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A21,NewSemesterPass!D:D)</f>
-        <v>34000</v>
+        <v>85000</v>
       </c>
       <c r="D21" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A21,NewSemesterPass!F:F)</f>
-        <v>68000</v>
+        <v>170000</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>102000</v>
+        <v>255000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1156,15 +1436,15 @@
       </c>
       <c r="C22" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A22,NewSemesterPass!D:D)</f>
-        <v>34000</v>
+        <v>68000</v>
       </c>
       <c r="D22" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A22,NewSemesterPass!F:F)</f>
-        <v>68000</v>
+        <v>136000</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>102000</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1176,15 +1456,15 @@
       </c>
       <c r="C23" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A23,NewSemesterPass!D:D)</f>
-        <v>34000</v>
+        <v>68000</v>
       </c>
       <c r="D23" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A23,NewSemesterPass!F:F)</f>
-        <v>68000</v>
+        <v>136000</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>102000</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1196,15 +1476,15 @@
       </c>
       <c r="C24" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A24,NewSemesterPass!D:D)</f>
-        <v>69000</v>
+        <v>115000</v>
       </c>
       <c r="D24" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A24,NewSemesterPass!F:F)</f>
-        <v>138000</v>
+        <v>230000</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>207000</v>
+        <v>345000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/NewSemesterPass.xlsx
+++ b/Assets/06.Table/NewSemesterPass.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881CAD47-6D1B-4919-B258-ADCD6A683653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49826D8B-F0F6-47C3-A570-950A093D387B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32730" yWindow="645" windowWidth="21600" windowHeight="14940" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="NewSemesterPass" sheetId="1" r:id="rId1"/>
     <sheet name="보상 측정" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -123,6 +126,34 @@
   </si>
   <si>
     <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새학기 이벤트 재화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹서기 이벤트 재화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요도 해방서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우불씨 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미꽃 소탕권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +197,23 @@
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -214,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,13 +287,16 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -265,6 +316,36 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="NewSemesterPass"/>
+      <sheetName val="보상 측정"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>reward1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="19">
+          <cell r="A19">
+            <v>46</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -564,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -608,16 +689,16 @@
         <v>5000000</v>
       </c>
       <c r="C2" s="8">
-        <v>9010</v>
+        <v>9028</v>
       </c>
       <c r="D2" s="7">
-        <v>23000</v>
+        <v>2</v>
       </c>
       <c r="E2" s="8">
-        <v>9010</v>
+        <v>9028</v>
       </c>
       <c r="F2" s="7">
-        <v>46000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -627,17 +708,17 @@
       <c r="B3" s="7">
         <v>10000000</v>
       </c>
-      <c r="C3" s="6">
-        <v>46</v>
+      <c r="C3" s="8">
+        <v>9027</v>
       </c>
       <c r="D3" s="7">
-        <v>23000</v>
-      </c>
-      <c r="E3" s="6">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>9027</v>
       </c>
       <c r="F3" s="7">
-        <v>46000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -647,17 +728,17 @@
       <c r="B4" s="7">
         <v>15000000</v>
       </c>
-      <c r="C4" s="6">
-        <v>73</v>
+      <c r="C4" s="8">
+        <v>9017</v>
       </c>
       <c r="D4" s="7">
-        <v>17000</v>
-      </c>
-      <c r="E4" s="6">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>9017</v>
       </c>
       <c r="F4" s="7">
-        <v>34000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -667,17 +748,17 @@
       <c r="B5" s="7">
         <v>20000000</v>
       </c>
-      <c r="C5" s="6">
-        <v>88</v>
+      <c r="C5" s="8">
+        <v>9023</v>
       </c>
       <c r="D5" s="7">
-        <v>17000</v>
-      </c>
-      <c r="E5" s="6">
-        <v>88</v>
+        <v>2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>9023</v>
       </c>
       <c r="F5" s="7">
-        <v>34000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -687,17 +768,17 @@
       <c r="B6" s="7">
         <v>25000000</v>
       </c>
-      <c r="C6" s="6">
-        <v>9001</v>
+      <c r="C6" s="8">
+        <v>9009</v>
       </c>
       <c r="D6" s="7">
-        <v>17000</v>
-      </c>
-      <c r="E6" s="6">
-        <v>9001</v>
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>9009</v>
       </c>
       <c r="F6" s="7">
-        <v>34000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -707,17 +788,17 @@
       <c r="B7" s="7">
         <v>30000000</v>
       </c>
-      <c r="C7" s="9">
-        <v>9008</v>
+      <c r="C7" s="8">
+        <v>9028</v>
       </c>
       <c r="D7" s="7">
-        <v>17000</v>
-      </c>
-      <c r="E7" s="9">
-        <v>9008</v>
+        <v>2</v>
+      </c>
+      <c r="E7" s="8">
+        <v>9028</v>
       </c>
       <c r="F7" s="7">
-        <v>34000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -728,16 +809,16 @@
         <v>35000000</v>
       </c>
       <c r="C8" s="8">
-        <v>9010</v>
+        <v>9027</v>
       </c>
       <c r="D8" s="7">
-        <v>23000</v>
+        <v>1</v>
       </c>
       <c r="E8" s="8">
-        <v>9010</v>
+        <v>9027</v>
       </c>
       <c r="F8" s="7">
-        <v>46000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -747,17 +828,17 @@
       <c r="B9" s="7">
         <v>40000000</v>
       </c>
-      <c r="C9" s="6">
-        <v>46</v>
+      <c r="C9" s="8">
+        <v>9017</v>
       </c>
       <c r="D9" s="7">
-        <v>23000</v>
-      </c>
-      <c r="E9" s="6">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>9017</v>
       </c>
       <c r="F9" s="7">
-        <v>46000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -767,17 +848,17 @@
       <c r="B10" s="7">
         <v>45000000</v>
       </c>
-      <c r="C10" s="6">
-        <v>73</v>
+      <c r="C10" s="8">
+        <v>9023</v>
       </c>
       <c r="D10" s="7">
-        <v>17000</v>
-      </c>
-      <c r="E10" s="6">
-        <v>73</v>
+        <v>2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>9023</v>
       </c>
       <c r="F10" s="7">
-        <v>34000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -787,17 +868,17 @@
       <c r="B11" s="7">
         <v>50000000</v>
       </c>
-      <c r="C11" s="6">
-        <v>88</v>
+      <c r="C11" s="8">
+        <v>9009</v>
       </c>
       <c r="D11" s="7">
-        <v>17000</v>
-      </c>
-      <c r="E11" s="6">
-        <v>88</v>
+        <v>3</v>
+      </c>
+      <c r="E11" s="8">
+        <v>9009</v>
       </c>
       <c r="F11" s="7">
-        <v>34000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -807,17 +888,17 @@
       <c r="B12" s="7">
         <v>55000000</v>
       </c>
-      <c r="C12" s="6">
-        <v>9001</v>
+      <c r="C12" s="8">
+        <v>9028</v>
       </c>
       <c r="D12" s="7">
-        <v>17000</v>
-      </c>
-      <c r="E12" s="6">
-        <v>9001</v>
+        <v>2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>9028</v>
       </c>
       <c r="F12" s="7">
-        <v>34000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -827,17 +908,17 @@
       <c r="B13" s="7">
         <v>60000000</v>
       </c>
-      <c r="C13" s="9">
-        <v>9008</v>
+      <c r="C13" s="8">
+        <v>9027</v>
       </c>
       <c r="D13" s="7">
-        <v>17000</v>
-      </c>
-      <c r="E13" s="9">
-        <v>9008</v>
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>9027</v>
       </c>
       <c r="F13" s="7">
-        <v>34000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -848,16 +929,16 @@
         <v>65000000</v>
       </c>
       <c r="C14" s="8">
-        <v>9010</v>
+        <v>9017</v>
       </c>
       <c r="D14" s="7">
-        <v>23000</v>
+        <v>1</v>
       </c>
       <c r="E14" s="8">
-        <v>9010</v>
+        <v>9017</v>
       </c>
       <c r="F14" s="7">
-        <v>46000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -867,17 +948,17 @@
       <c r="B15" s="7">
         <v>70000000</v>
       </c>
-      <c r="C15" s="6">
-        <v>46</v>
+      <c r="C15" s="8">
+        <v>9023</v>
       </c>
       <c r="D15" s="7">
-        <v>23000</v>
-      </c>
-      <c r="E15" s="6">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="E15" s="8">
+        <v>9023</v>
       </c>
       <c r="F15" s="7">
-        <v>46000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -887,17 +968,17 @@
       <c r="B16" s="7">
         <v>75000000</v>
       </c>
-      <c r="C16" s="6">
-        <v>73</v>
+      <c r="C16" s="8">
+        <v>9009</v>
       </c>
       <c r="D16" s="7">
-        <v>17000</v>
-      </c>
-      <c r="E16" s="6">
-        <v>73</v>
+        <v>3</v>
+      </c>
+      <c r="E16" s="8">
+        <v>9009</v>
       </c>
       <c r="F16" s="7">
-        <v>34000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -907,17 +988,17 @@
       <c r="B17" s="7">
         <v>80000000</v>
       </c>
-      <c r="C17" s="6">
-        <v>88</v>
+      <c r="C17" s="8">
+        <v>9028</v>
       </c>
       <c r="D17" s="7">
-        <v>17000</v>
-      </c>
-      <c r="E17" s="6">
-        <v>88</v>
+        <v>2</v>
+      </c>
+      <c r="E17" s="8">
+        <v>9028</v>
       </c>
       <c r="F17" s="7">
-        <v>34000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -927,17 +1008,17 @@
       <c r="B18" s="7">
         <v>85000000</v>
       </c>
-      <c r="C18" s="6">
-        <v>9001</v>
+      <c r="C18" s="8">
+        <v>9027</v>
       </c>
       <c r="D18" s="7">
-        <v>17000</v>
-      </c>
-      <c r="E18" s="6">
-        <v>9001</v>
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>9027</v>
       </c>
       <c r="F18" s="7">
-        <v>34000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -947,17 +1028,17 @@
       <c r="B19" s="7">
         <v>90000000</v>
       </c>
-      <c r="C19" s="9">
-        <v>9008</v>
+      <c r="C19" s="8">
+        <v>9017</v>
       </c>
       <c r="D19" s="7">
-        <v>17000</v>
-      </c>
-      <c r="E19" s="9">
-        <v>9008</v>
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>9017</v>
       </c>
       <c r="F19" s="7">
-        <v>34000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -968,16 +1049,16 @@
         <v>95000000</v>
       </c>
       <c r="C20" s="8">
-        <v>9010</v>
+        <v>9023</v>
       </c>
       <c r="D20" s="7">
-        <v>23000</v>
+        <v>2</v>
       </c>
       <c r="E20" s="8">
-        <v>9010</v>
+        <v>9023</v>
       </c>
       <c r="F20" s="7">
-        <v>46000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -987,17 +1068,17 @@
       <c r="B21" s="7">
         <v>100000000</v>
       </c>
-      <c r="C21" s="6">
-        <v>46</v>
+      <c r="C21" s="8">
+        <v>9009</v>
       </c>
       <c r="D21" s="7">
-        <v>23000</v>
-      </c>
-      <c r="E21" s="6">
-        <v>46</v>
+        <v>3</v>
+      </c>
+      <c r="E21" s="8">
+        <v>9009</v>
       </c>
       <c r="F21" s="7">
-        <v>46000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1007,17 +1088,17 @@
       <c r="B22" s="7">
         <v>105000000</v>
       </c>
-      <c r="C22" s="6">
-        <v>73</v>
+      <c r="C22" s="8">
+        <v>9028</v>
       </c>
       <c r="D22" s="7">
-        <v>17000</v>
-      </c>
-      <c r="E22" s="6">
-        <v>73</v>
+        <v>2</v>
+      </c>
+      <c r="E22" s="8">
+        <v>9028</v>
       </c>
       <c r="F22" s="7">
-        <v>34000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1027,17 +1108,17 @@
       <c r="B23" s="7">
         <v>110000000</v>
       </c>
-      <c r="C23" s="6">
-        <v>88</v>
+      <c r="C23" s="8">
+        <v>9027</v>
       </c>
       <c r="D23" s="7">
-        <v>17000</v>
-      </c>
-      <c r="E23" s="6">
-        <v>88</v>
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>9027</v>
       </c>
       <c r="F23" s="7">
-        <v>34000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1047,17 +1128,17 @@
       <c r="B24" s="7">
         <v>115000000</v>
       </c>
-      <c r="C24" s="6">
-        <v>9001</v>
+      <c r="C24" s="8">
+        <v>9017</v>
       </c>
       <c r="D24" s="7">
-        <v>17000</v>
-      </c>
-      <c r="E24" s="6">
-        <v>9001</v>
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>9017</v>
       </c>
       <c r="F24" s="7">
-        <v>34000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1067,17 +1148,17 @@
       <c r="B25" s="7">
         <v>120000000</v>
       </c>
-      <c r="C25" s="9">
-        <v>9008</v>
+      <c r="C25" s="8">
+        <v>9023</v>
       </c>
       <c r="D25" s="7">
-        <v>17000</v>
-      </c>
-      <c r="E25" s="9">
-        <v>9008</v>
+        <v>2</v>
+      </c>
+      <c r="E25" s="8">
+        <v>9023</v>
       </c>
       <c r="F25" s="7">
-        <v>34000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1088,16 +1169,16 @@
         <v>125000000</v>
       </c>
       <c r="C26" s="8">
-        <v>9010</v>
+        <v>9009</v>
       </c>
       <c r="D26" s="7">
-        <v>23000</v>
+        <v>3</v>
       </c>
       <c r="E26" s="8">
-        <v>9010</v>
+        <v>9009</v>
       </c>
       <c r="F26" s="7">
-        <v>46000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1107,17 +1188,17 @@
       <c r="B27" s="7">
         <v>130000000</v>
       </c>
-      <c r="C27" s="6">
-        <v>46</v>
+      <c r="C27" s="8">
+        <v>9028</v>
       </c>
       <c r="D27" s="7">
-        <v>23000</v>
-      </c>
-      <c r="E27" s="6">
-        <v>46</v>
+        <v>2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>9028</v>
       </c>
       <c r="F27" s="7">
-        <v>46000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1127,17 +1208,17 @@
       <c r="B28" s="7">
         <v>135000000</v>
       </c>
-      <c r="C28" s="6">
-        <v>73</v>
+      <c r="C28" s="8">
+        <v>9027</v>
       </c>
       <c r="D28" s="7">
-        <v>17000</v>
-      </c>
-      <c r="E28" s="6">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="E28" s="8">
+        <v>9027</v>
       </c>
       <c r="F28" s="7">
-        <v>34000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1147,17 +1228,57 @@
       <c r="B29" s="7">
         <v>140000000</v>
       </c>
-      <c r="C29" s="6">
-        <v>88</v>
+      <c r="C29" s="8">
+        <v>9017</v>
       </c>
       <c r="D29" s="7">
-        <v>17000</v>
-      </c>
-      <c r="E29" s="6">
-        <v>88</v>
+        <v>1</v>
+      </c>
+      <c r="E29" s="8">
+        <v>9017</v>
       </c>
       <c r="F29" s="7">
-        <v>34000</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="7">
+        <v>145000000</v>
+      </c>
+      <c r="C30" s="8">
+        <v>9023</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+      <c r="E30" s="8">
+        <v>9023</v>
+      </c>
+      <c r="F30" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7">
+        <v>150000000</v>
+      </c>
+      <c r="C31" s="8">
+        <v>9009</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3</v>
+      </c>
+      <c r="E31" s="8">
+        <v>9009</v>
+      </c>
+      <c r="F31" s="7">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1169,19 +1290,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B699092B-189E-427C-8E28-BF4AED1E11B6}">
-  <dimension ref="A2:G24"/>
+  <dimension ref="A2:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -1189,32 +1313,46 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1">
         <f>D2*D3</f>
-        <v>70000000</v>
+        <v>150000000</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="I6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1230,8 +1368,23 @@
       <c r="E8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>46</v>
       </c>
@@ -1249,8 +1402,27 @@
         <v>33333.333333333336</v>
       </c>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="8">
+        <v>9028</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="1">
+        <v>80</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9" s="1">
+        <f>(J9/K9)/2</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>73</v>
       </c>
@@ -1268,8 +1440,27 @@
         <v>25000</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="8">
+        <v>9027</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="1">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" ref="L10:L13" si="1">(J10/K10)/2</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>88</v>
       </c>
@@ -1287,8 +1478,27 @@
         <v>25000</v>
       </c>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="8">
+        <v>9017</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1">
+        <v>60</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9001</v>
       </c>
@@ -1306,8 +1516,27 @@
         <v>25000</v>
       </c>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="8">
+        <v>9023</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1">
+        <v>80</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>9008</v>
       </c>
@@ -1325,8 +1554,27 @@
         <v>25000</v>
       </c>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="8">
+        <v>9009</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="1">
+        <v>120</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>9010</v>
       </c>
@@ -1344,13 +1592,19 @@
         <v>33333.333333333336</v>
       </c>
       <c r="F14" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H14" s="8"/>
+      <c r="J14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1366,28 +1620,65 @@
       <c r="E18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="1">
-        <f>SUMIF(NewSemesterPass!C:C,A19,NewSemesterPass!D:D)</f>
-        <v>115000</v>
-      </c>
-      <c r="D19" s="1">
-        <f>SUMIF(NewSemesterPass!C:C,A19,NewSemesterPass!F:F)</f>
-        <v>230000</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="C19" s="1" t="e">
+        <f>SUMIF([1]NewSemesterPass!#REF!,'[1]보상 측정'!A19,[1]NewSemesterPass!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D19" s="1" t="e">
+        <f>SUMIF([1]NewSemesterPass!#REF!,'[1]보상 측정'!A19,[1]NewSemesterPass!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E19" s="1" t="e">
         <f>C19+D19</f>
-        <v>345000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>#REF!</v>
+      </c>
+      <c r="H19" s="8">
+        <v>9028</v>
+      </c>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="1">
+        <f>SUMIF(NewSemesterPass!C:C,'보상 측정'!H19,NewSemesterPass!D:D)</f>
+        <v>12</v>
+      </c>
+      <c r="K19" s="1">
+        <f>SUMIF(NewSemesterPass!E:E,'보상 측정'!H19,NewSemesterPass!F:F)</f>
+        <v>60</v>
+      </c>
+      <c r="L19" s="1">
+        <f>J19+K19</f>
+        <v>72</v>
+      </c>
+      <c r="M19">
+        <f>L19/4</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>73</v>
       </c>
@@ -1396,18 +1687,40 @@
       </c>
       <c r="C20" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A20,NewSemesterPass!D:D)</f>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A20,NewSemesterPass!F:F)</f>
-        <v>170000</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" ref="E20:E24" si="1">C20+D20</f>
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E20:E24" si="2">C20+D20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <v>9027</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="1">
+        <f>SUMIF(NewSemesterPass!C:C,'보상 측정'!H20,NewSemesterPass!D:D)</f>
+        <v>6</v>
+      </c>
+      <c r="K20" s="1">
+        <f>SUMIF(NewSemesterPass!E:E,'보상 측정'!H20,NewSemesterPass!F:F)</f>
+        <v>30</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" ref="L20:L23" si="3">J20+K20</f>
+        <v>36</v>
+      </c>
+      <c r="M20">
+        <f>L20/2</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>88</v>
       </c>
@@ -1416,18 +1729,40 @@
       </c>
       <c r="C21" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A21,NewSemesterPass!D:D)</f>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A21,NewSemesterPass!F:F)</f>
-        <v>170000</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>255000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <v>9017</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="1">
+        <f>SUMIF(NewSemesterPass!C:C,'보상 측정'!H21,NewSemesterPass!D:D)</f>
+        <v>6</v>
+      </c>
+      <c r="K21" s="1">
+        <f>SUMIF(NewSemesterPass!E:E,'보상 측정'!H21,NewSemesterPass!F:F)</f>
+        <v>30</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="M21">
+        <f>L21/2</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>9001</v>
       </c>
@@ -1436,18 +1771,36 @@
       </c>
       <c r="C22" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A22,NewSemesterPass!D:D)</f>
-        <v>68000</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A22,NewSemesterPass!F:F)</f>
-        <v>136000</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>204000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <v>9023</v>
+      </c>
+      <c r="I22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="1">
+        <f>SUMIF(NewSemesterPass!C:C,'보상 측정'!H22,NewSemesterPass!D:D)</f>
+        <v>12</v>
+      </c>
+      <c r="K22" s="1">
+        <f>SUMIF(NewSemesterPass!E:E,'보상 측정'!H22,NewSemesterPass!F:F)</f>
+        <v>60</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>9008</v>
       </c>
@@ -1456,18 +1809,36 @@
       </c>
       <c r="C23" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A23,NewSemesterPass!D:D)</f>
-        <v>68000</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A23,NewSemesterPass!F:F)</f>
-        <v>136000</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>204000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
+        <v>9009</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="1">
+        <f>SUMIF(NewSemesterPass!C:C,'보상 측정'!H23,NewSemesterPass!D:D)</f>
+        <v>18</v>
+      </c>
+      <c r="K23" s="1">
+        <f>SUMIF(NewSemesterPass!E:E,'보상 측정'!H23,NewSemesterPass!F:F)</f>
+        <v>72</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>9010</v>
       </c>
@@ -1476,20 +1847,27 @@
       </c>
       <c r="C24" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A24,NewSemesterPass!D:D)</f>
-        <v>115000</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <f>SUMIF(NewSemesterPass!C:C,A24,NewSemesterPass!F:F)</f>
-        <v>230000</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>345000</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
